--- a/docs/StructureDefinition-AppointmentInicioLE.xlsx
+++ b/docs/StructureDefinition-AppointmentInicioLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-25T12:03:32-03:00</t>
+    <t>2023-01-25T13:45:37-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -726,7 +726,7 @@
 This element is labeled as a modifier because the status contains the code entered-in-error that mark the Appointment as not currently valid.</t>
   </si>
   <si>
-    <t>booked</t>
+    <t>fulfilled</t>
   </si>
   <si>
     <t>The free/busy status of an appointment.</t>

--- a/docs/StructureDefinition-AppointmentInicioLE.xlsx
+++ b/docs/StructureDefinition-AppointmentInicioLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-25T13:45:37-03:00</t>
+    <t>2023-01-30T23:51:40-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-AppointmentInicioLE.xlsx
+++ b/docs/StructureDefinition-AppointmentInicioLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-30T23:51:40-03:00</t>
+    <t>2023-01-31T15:14:06-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-AppointmentInicioLE.xlsx
+++ b/docs/StructureDefinition-AppointmentInicioLE.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$42</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1862" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1565" uniqueCount="360">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-31T15:14:06-03:00</t>
+    <t>2023-02-10T14:01:31-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -517,242 +517,53 @@
     <t>SCH-1, SCH-2, ARQ-1, ARQ-2</t>
   </si>
   <si>
-    <t>Appointment.identifier.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Appointment.identifier.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Appointment.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+    <t>Appointment.status</t>
+  </si>
+  <si>
+    <t>proposed | pending | booked | arrived | fulfilled | cancelled | noshow | entered-in-error | checked-in | waitlist</t>
+  </si>
+  <si>
+    <t>The overall status of the Appointment. Each of the participants has their own participation status which indicates their involvement in the process, however this status indicates the shared status.</t>
+  </si>
+  <si>
+    <t>If the Appointment's status is "cancelled" then all participants are expected to have their calendars released for the appointment period, and as such any Slots that were marked as BUSY can be re-set to FREE.
+This element is labeled as a modifier because the status contains the code entered-in-error that mark the Appointment as not currently valid.</t>
+  </si>
+  <si>
+    <t>fulfilled</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>Appointment.identifier.type</t>
+    <t>The free/busy status of an appointment.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/appointmentstatus|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.status</t>
+  </si>
+  <si>
+    <t>.statusCode</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>SCH-25</t>
+  </si>
+  <si>
+    <t>Appointment.cancelationReason</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>CX.5</t>
-  </si>
-  <si>
-    <t>Appointment.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>Appointment.identifier.value</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>Appointment.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>CX.7 + CX.8</t>
-  </si>
-  <si>
-    <t>Appointment.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
-  </si>
-  <si>
-    <t>Appointment.status</t>
-  </si>
-  <si>
-    <t>proposed | pending | booked | arrived | fulfilled | cancelled | noshow | entered-in-error | checked-in | waitlist</t>
-  </si>
-  <si>
-    <t>The overall status of the Appointment. Each of the participants has their own participation status which indicates their involvement in the process, however this status indicates the shared status.</t>
-  </si>
-  <si>
-    <t>If the Appointment's status is "cancelled" then all participants are expected to have their calendars released for the appointment period, and as such any Slots that were marked as BUSY can be re-set to FREE.
-This element is labeled as a modifier because the status contains the code entered-in-error that mark the Appointment as not currently valid.</t>
-  </si>
-  <si>
-    <t>fulfilled</t>
-  </si>
-  <si>
-    <t>The free/busy status of an appointment.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/appointmentstatus|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.status</t>
-  </si>
-  <si>
-    <t>.statusCode</t>
-  </si>
-  <si>
-    <t>STATUS</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>SCH-25</t>
-  </si>
-  <si>
-    <t>Appointment.cancelationReason</t>
-  </si>
-  <si>
     <t>The coded reason for the appointment being cancelled</t>
   </si>
   <si>
@@ -763,6 +574,9 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/appointment-cancellation-reason</t>
+  </si>
+  <si>
+    <t>n/a</t>
   </si>
   <si>
     <t>Appointment.serviceCategory</t>
@@ -916,6 +730,10 @@
     <t>Appointment.description</t>
   </si>
   <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
     <t>Shown on a subject line in a meeting request, or appointment list</t>
   </si>
   <si>
@@ -1155,7 +973,25 @@
     <t>Appointment.participant.id</t>
   </si>
   <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
     <t>Appointment.participant.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
   </si>
   <si>
     <t>Appointment.participant.modifierExtension</t>
@@ -1191,6 +1027,9 @@
 This value SHALL be the same when creating an AppointmentResponse so that they can be matched, and subsequently update the Appointment.</t>
   </si>
   <si>
+    <t>extensible</t>
+  </si>
+  <si>
     <t>Role of participant in encounter.</t>
   </si>
   <si>
@@ -1274,6 +1113,10 @@
   </si>
   <si>
     <t>Appointment.participant.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
   </si>
   <si>
     <t>Participation period of the actor</t>
@@ -1610,7 +1453,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO50"/>
+  <dimension ref="A1:AO42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1638,16 +1481,16 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="49.39453125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="56.84765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.8203125" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
@@ -3080,13 +2923,13 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>75</v>
@@ -3195,30 +3038,32 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>75</v>
@@ -3228,7 +3073,7 @@
         <v>75</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>75</v>
+        <v>164</v>
       </c>
       <c r="T14" t="s" s="2">
         <v>75</v>
@@ -3243,13 +3088,13 @@
         <v>75</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>75</v>
+        <v>165</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>75</v>
+        <v>166</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>75</v>
+        <v>167</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>75</v>
@@ -3267,10 +3112,10 @@
         <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>85</v>
@@ -3279,41 +3124,41 @@
         <v>75</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>75</v>
+        <v>170</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>75</v>
+        <v>171</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>75</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>145</v>
+        <v>75</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>75</v>
@@ -3322,20 +3167,18 @@
         <v>75</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>75</v>
@@ -3360,49 +3203,47 @@
         <v>75</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
-        <v>75</v>
+        <v>178</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>169</v>
+        <v>75</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>75</v>
@@ -3416,10 +3257,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3430,32 +3271,28 @@
         <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>105</v>
+        <v>174</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>75</v>
       </c>
@@ -3479,13 +3316,11 @@
         <v>75</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="Y16" t="s" s="2">
         <v>177</v>
       </c>
+      <c r="Y16" s="2"/>
       <c r="Z16" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>75</v>
@@ -3503,13 +3338,13 @@
         <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>75</v>
@@ -3521,24 +3356,24 @@
         <v>75</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>75</v>
+        <v>185</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3549,7 +3384,7 @@
         <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>75</v>
@@ -3561,20 +3396,18 @@
         <v>86</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>75</v>
       </c>
@@ -3598,13 +3431,11 @@
         <v>75</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>188</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="Y17" s="2"/>
       <c r="Z17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>75</v>
@@ -3622,13 +3453,13 @@
         <v>75</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>75</v>
@@ -3637,10 +3468,10 @@
         <v>97</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>75</v>
+        <v>191</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>75</v>
@@ -3649,7 +3480,7 @@
         <v>75</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>191</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" hidden="true">
@@ -3668,7 +3499,7 @@
         <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>75</v>
@@ -3680,7 +3511,7 @@
         <v>86</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>99</v>
+        <v>174</v>
       </c>
       <c r="L18" t="s" s="2">
         <v>193</v>
@@ -3688,12 +3519,8 @@
       <c r="M18" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="N18" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>196</v>
-      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>75</v>
       </c>
@@ -3705,7 +3532,7 @@
         <v>75</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>197</v>
+        <v>75</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>75</v>
@@ -3717,13 +3544,11 @@
         <v>75</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>75</v>
+        <v>195</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>75</v>
@@ -3741,13 +3566,13 @@
         <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>75</v>
@@ -3759,24 +3584,24 @@
         <v>75</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>75</v>
+        <v>197</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>200</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3784,13 +3609,13 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>75</v>
@@ -3799,17 +3624,15 @@
         <v>86</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>75</v>
@@ -3822,7 +3645,7 @@
         <v>75</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>205</v>
+        <v>75</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>75</v>
@@ -3834,13 +3657,11 @@
         <v>75</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
-        <v>75</v>
+        <v>201</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>75</v>
@@ -3858,7 +3679,7 @@
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
@@ -3876,24 +3697,24 @@
         <v>75</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>75</v>
+        <v>203</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3904,7 +3725,7 @@
         <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>75</v>
@@ -3916,13 +3737,13 @@
         <v>86</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3949,13 +3770,13 @@
         <v>75</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>75</v>
+        <v>208</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>75</v>
+        <v>209</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>75</v>
@@ -3973,13 +3794,13 @@
         <v>75</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>75</v>
@@ -3988,10 +3809,10 @@
         <v>97</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>75</v>
+        <v>210</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>75</v>
@@ -4000,15 +3821,15 @@
         <v>75</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4019,7 +3840,7 @@
         <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>75</v>
@@ -4028,20 +3849,18 @@
         <v>75</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>220</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>75</v>
@@ -4090,13 +3909,13 @@
         <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>75</v>
@@ -4105,10 +3924,10 @@
         <v>97</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>75</v>
+        <v>217</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>75</v>
@@ -4117,15 +3936,15 @@
         <v>75</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>223</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4133,31 +3952,31 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>105</v>
+        <v>220</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4168,7 +3987,7 @@
         <v>75</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>228</v>
+        <v>75</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>75</v>
@@ -4183,13 +4002,13 @@
         <v>75</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>176</v>
+        <v>75</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>229</v>
+        <v>75</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>230</v>
+        <v>75</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>75</v>
@@ -4207,10 +4026,10 @@
         <v>75</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>85</v>
@@ -4222,27 +4041,27 @@
         <v>97</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4262,16 +4081,16 @@
         <v>75</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>182</v>
+        <v>229</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4298,11 +4117,13 @@
         <v>75</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="Y23" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z23" t="s" s="2">
-        <v>240</v>
+        <v>75</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>75</v>
@@ -4320,7 +4141,7 @@
         <v>75</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -4338,24 +4159,24 @@
         <v>75</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>165</v>
+        <v>232</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>75</v>
+        <v>233</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>75</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4375,16 +4196,16 @@
         <v>75</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>182</v>
+        <v>236</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4411,11 +4232,13 @@
         <v>75</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="Y24" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z24" t="s" s="2">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>75</v>
@@ -4433,7 +4256,7 @@
         <v>75</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -4448,16 +4271,16 @@
         <v>97</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>75</v>
+        <v>239</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>75</v>
+        <v>242</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>75</v>
@@ -4465,10 +4288,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4479,10 +4302,10 @@
         <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>75</v>
@@ -4491,17 +4314,15 @@
         <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>182</v>
+        <v>244</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>75</v>
@@ -4526,11 +4347,13 @@
         <v>75</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="Y25" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z25" t="s" s="2">
-        <v>251</v>
+        <v>75</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>75</v>
@@ -4548,13 +4371,13 @@
         <v>75</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>75</v>
@@ -4563,27 +4386,27 @@
         <v>97</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>75</v>
+        <v>249</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>75</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4594,7 +4417,7 @@
         <v>76</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>75</v>
@@ -4606,13 +4429,13 @@
         <v>86</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>182</v>
+        <v>244</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4639,11 +4462,13 @@
         <v>75</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="Y26" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z26" t="s" s="2">
-        <v>256</v>
+        <v>75</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>75</v>
@@ -4661,13 +4486,13 @@
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>75</v>
@@ -4676,19 +4501,19 @@
         <v>97</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>75</v>
+        <v>247</v>
       </c>
       <c r="AL26" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AM26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN26" t="s" s="2">
+      <c r="AO26" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>75</v>
       </c>
     </row>
     <row r="27" hidden="true">
@@ -4716,16 +4541,16 @@
         <v>75</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>182</v>
+        <v>260</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4752,11 +4577,13 @@
         <v>75</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="Y27" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z27" t="s" s="2">
-        <v>262</v>
+        <v>75</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>75</v>
@@ -4789,7 +4616,7 @@
         <v>97</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>75</v>
+        <v>247</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>263</v>
@@ -4801,15 +4628,15 @@
         <v>75</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>265</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4829,10 +4656,10 @@
         <v>75</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>182</v>
+        <v>266</v>
       </c>
       <c r="L28" t="s" s="2">
         <v>267</v>
@@ -4865,13 +4692,13 @@
         <v>75</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>269</v>
+        <v>75</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>270</v>
+        <v>75</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>75</v>
@@ -4889,7 +4716,7 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
@@ -4904,10 +4731,10 @@
         <v>97</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>271</v>
+        <v>75</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>75</v>
@@ -4916,15 +4743,15 @@
         <v>75</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>273</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4935,7 +4762,7 @@
         <v>76</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>75</v>
@@ -4947,15 +4774,17 @@
         <v>75</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>75</v>
@@ -5004,13 +4833,13 @@
         <v>75</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>75</v>
@@ -5019,13 +4848,13 @@
         <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>75</v>
+        <v>277</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>75</v>
@@ -5036,10 +4865,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5062,16 +4891,16 @@
         <v>75</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="N30" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5121,7 +4950,7 @@
         <v>75</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
@@ -5136,27 +4965,27 @@
         <v>97</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>258</v>
+        <v>75</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>288</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5179,13 +5008,13 @@
         <v>75</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>161</v>
+        <v>229</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5236,7 +5065,7 @@
         <v>75</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
@@ -5254,38 +5083,38 @@
         <v>75</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>294</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>75</v>
+        <v>290</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>75</v>
@@ -5294,13 +5123,13 @@
         <v>75</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5351,7 +5180,7 @@
         <v>75</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
@@ -5366,16 +5195,16 @@
         <v>97</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>301</v>
+        <v>75</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>302</v>
+        <v>75</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>75</v>
@@ -5383,10 +5212,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5394,28 +5223,28 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5466,42 +5295,42 @@
         <v>75</v>
       </c>
       <c r="AF33" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="AG33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>309</v>
-      </c>
       <c r="AN33" t="s" s="2">
-        <v>310</v>
+        <v>75</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5521,16 +5350,16 @@
         <v>75</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>304</v>
+        <v>229</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5581,7 +5410,7 @@
         <v>75</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
@@ -5593,41 +5422,41 @@
         <v>75</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>307</v>
+        <v>75</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>315</v>
+        <v>179</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>316</v>
+        <v>75</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>317</v>
+        <v>75</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>318</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>75</v>
+        <v>145</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>75</v>
@@ -5639,15 +5468,17 @@
         <v>75</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>320</v>
+        <v>130</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>75</v>
@@ -5696,28 +5527,28 @@
         <v>75</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>307</v>
+        <v>75</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>323</v>
+        <v>179</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>324</v>
+        <v>75</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>75</v>
@@ -5728,14 +5559,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>75</v>
+        <v>314</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5748,22 +5579,26 @@
         <v>75</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>326</v>
+        <v>130</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>75</v>
       </c>
@@ -5811,7 +5646,7 @@
         <v>75</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
@@ -5823,13 +5658,13 @@
         <v>75</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>329</v>
+        <v>128</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>75</v>
@@ -5843,10 +5678,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5857,7 +5692,7 @@
         <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>75</v>
@@ -5866,19 +5701,19 @@
         <v>75</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>331</v>
+        <v>174</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5904,13 +5739,13 @@
         <v>75</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>75</v>
+        <v>322</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>75</v>
+        <v>323</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>75</v>
+        <v>324</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>75</v>
@@ -5928,13 +5763,13 @@
         <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>75</v>
@@ -5943,27 +5778,27 @@
         <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>335</v>
+        <v>75</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>337</v>
+        <v>179</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>75</v>
+        <v>326</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5983,20 +5818,18 @@
         <v>75</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>161</v>
+        <v>328</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>75</v>
@@ -6045,7 +5878,7 @@
         <v>75</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
@@ -6060,27 +5893,27 @@
         <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>342</v>
+        <v>75</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>75</v>
+        <v>333</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>294</v>
+        <v>334</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6100,16 +5933,16 @@
         <v>75</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6136,13 +5969,13 @@
         <v>75</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>75</v>
+        <v>165</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>75</v>
+        <v>338</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>75</v>
+        <v>339</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>75</v>
@@ -6160,7 +5993,7 @@
         <v>75</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
@@ -6178,28 +6011,28 @@
         <v>75</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>294</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>350</v>
+        <v>75</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6209,22 +6042,22 @@
         <v>85</v>
       </c>
       <c r="H40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J40" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="I40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="K40" t="s" s="2">
-        <v>351</v>
+        <v>105</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6251,13 +6084,13 @@
         <v>75</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>75</v>
+        <v>165</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>75</v>
+        <v>345</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>75</v>
+        <v>346</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>75</v>
@@ -6275,13 +6108,13 @@
         <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>75</v>
@@ -6290,27 +6123,27 @@
         <v>97</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>354</v>
+        <v>75</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>75</v>
+        <v>348</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>75</v>
+        <v>349</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6318,11 +6151,11 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G41" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G41" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="H41" t="s" s="2">
         <v>75</v>
       </c>
@@ -6333,13 +6166,13 @@
         <v>75</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6390,42 +6223,42 @@
         <v>75</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="AG41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH41" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="AH41" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AI41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>360</v>
+        <v>97</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>361</v>
+        <v>75</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>362</v>
+        <v>179</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>363</v>
+        <v>75</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>364</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6436,7 +6269,7 @@
         <v>76</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>75</v>
@@ -6448,15 +6281,17 @@
         <v>75</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>161</v>
+        <v>351</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>162</v>
+        <v>355</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>75</v>
@@ -6505,25 +6340,25 @@
         <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>164</v>
+        <v>354</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>75</v>
+        <v>247</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>165</v>
+        <v>358</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>75</v>
@@ -6532,941 +6367,11 @@
         <v>75</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="43" hidden="true">
-      <c r="A43" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="E43" s="2"/>
-      <c r="F43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="O43" s="2"/>
-      <c r="P43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q43" s="2"/>
-      <c r="R43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AO43" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="44" hidden="true">
-      <c r="A44" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="E44" s="2"/>
-      <c r="F44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="P44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q44" s="2"/>
-      <c r="R44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AO44" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="45" hidden="true">
-      <c r="A45" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E45" s="2"/>
-      <c r="F45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="O45" s="2"/>
-      <c r="P45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q45" s="2"/>
-      <c r="R45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AO45" t="s" s="2">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="46" hidden="true">
-      <c r="A46" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G46" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-      <c r="P46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q46" s="2"/>
-      <c r="R46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="47" hidden="true">
-      <c r="A47" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E47" s="2"/>
-      <c r="F47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G47" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K47" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q47" s="2"/>
-      <c r="R47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" hidden="true">
-      <c r="A48" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E48" s="2"/>
-      <c r="F48" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K48" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q48" s="2"/>
-      <c r="R48" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S48" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T48" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="49" hidden="true">
-      <c r="A49" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E49" s="2"/>
-      <c r="F49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K49" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q49" s="2"/>
-      <c r="R49" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S49" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="50" hidden="true">
-      <c r="A50" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="D50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E50" s="2"/>
-      <c r="F50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="O50" s="2"/>
-      <c r="P50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q50" s="2"/>
-      <c r="R50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>411</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO50">
+  <autoFilter ref="A1:AO42">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7476,7 +6381,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI49">
+  <conditionalFormatting sqref="A2:AI41">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-AppointmentInicioLE.xlsx
+++ b/docs/StructureDefinition-AppointmentInicioLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T14:01:31-03:00</t>
+    <t>2023-02-13T10:57:49-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-AppointmentInicioLE.xlsx
+++ b/docs/StructureDefinition-AppointmentInicioLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T10:57:49-03:00</t>
+    <t>2023-02-14T08:51:49-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-AppointmentInicioLE.xlsx
+++ b/docs/StructureDefinition-AppointmentInicioLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T08:51:49-03:00</t>
+    <t>2023-02-14T11:46:47-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-AppointmentInicioLE.xlsx
+++ b/docs/StructureDefinition-AppointmentInicioLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T11:46:47-03:00</t>
+    <t>2023-02-14T13:39:18-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-AppointmentInicioLE.xlsx
+++ b/docs/StructureDefinition-AppointmentInicioLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T13:39:18-03:00</t>
+    <t>2023-02-15T12:48:14-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1462,17 +1462,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.10546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.10546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.56640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.66796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.66796875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="17.35546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="91.78515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="91.39453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1481,27 +1481,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="49.39453125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.84765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="50.4921875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="56.640625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="33.4765625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="106.0703125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="151.71484375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="75.30859375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="34.3125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="110.08203125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="155.20703125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="77.55859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-AppointmentInicioLE.xlsx
+++ b/docs/StructureDefinition-AppointmentInicioLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T12:48:14-03:00</t>
+    <t>2023-02-17T16:26:02-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1462,17 +1462,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.66796875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.66796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.35546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.10546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.10546875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="17.56640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="91.39453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="91.78515625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1481,27 +1481,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.4921875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.640625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="49.39453125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="56.84765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="34.3125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="110.08203125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="155.20703125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="77.55859375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="33.4765625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="106.0703125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="151.71484375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="75.30859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-AppointmentInicioLE.xlsx
+++ b/docs/StructureDefinition-AppointmentInicioLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T16:26:02-03:00</t>
+    <t>2023-02-22T17:19:22-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-AppointmentInicioLE.xlsx
+++ b/docs/StructureDefinition-AppointmentInicioLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T17:19:22-03:00</t>
+    <t>2023-03-02T16:47:17-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-AppointmentInicioLE.xlsx
+++ b/docs/StructureDefinition-AppointmentInicioLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T16:47:17-03:00</t>
+    <t>2023-03-10T16:52:05-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-AppointmentInicioLE.xlsx
+++ b/docs/StructureDefinition-AppointmentInicioLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T16:52:05-03:00</t>
+    <t>2023-03-11T07:17:50-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-AppointmentInicioLE.xlsx
+++ b/docs/StructureDefinition-AppointmentInicioLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-11T07:17:50-03:00</t>
+    <t>2023-04-21T12:02:08-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1462,17 +1462,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.10546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.10546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.56640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.66796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.66796875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="17.35546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="91.78515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="91.39453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1481,27 +1481,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="49.39453125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.84765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="50.4921875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="56.640625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="33.4765625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="106.0703125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="151.71484375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="75.30859375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="34.3125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="110.08203125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="155.20703125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="77.55859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-AppointmentInicioLE.xlsx
+++ b/docs/StructureDefinition-AppointmentInicioLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.2</t>
+    <t>0.1.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T12:02:08-04:00</t>
+    <t>2023-05-08T17:35:30-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -781,7 +781,7 @@
 </t>
   </si>
   <si>
-    <t>When appointment is to take place</t>
+    <t>Fecha de la Cita</t>
   </si>
   <si>
     <t>Date/Time that the appointment is to take place.</t>
@@ -4299,7 +4299,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>85</v>
